--- a/GoogleTransExcel-OK.xlsx
+++ b/GoogleTransExcel-OK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>オリジナル</t>
   </si>
@@ -27,43 +27,85 @@
     <t>Hello Python World.</t>
   </si>
   <si>
+    <t>こんにちはPython World。</t>
+  </si>
+  <si>
     <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
   </si>
   <si>
+    <t>「What\x26#39;s New in Python」エッセイシリーズは、主要なPythonバージョン間の最も重要な変更点を紹介します。彼らは、新しいリリースの後に最新の状態を維持したいと思っている人にとっては、「読んでおく必要があります」。</t>
+  </si>
+  <si>
     <t>This article explains the new features in Python 3.6, compared to 3.5. Python 3.6 was released on December 23, 2016. For full details, see the changelog.</t>
   </si>
   <si>
+    <t>この記事では、3.5と比較して、Python 3.6の新機能について説明します。 Python 3.6は2016年12月23日にリリースされました。詳細は、changelogを参照してください。</t>
+  </si>
+  <si>
     <t>PEP 498, formatted string literals.</t>
   </si>
   <si>
+    <t>PEP 498、フォーマットされた文字列リテラル。</t>
+  </si>
+  <si>
     <t>PEP 515, underscores in numeric literals.</t>
   </si>
   <si>
+    <t>PEP 515は、数値リテラルの下にあります。</t>
+  </si>
+  <si>
     <t>PEP 526, syntax for variable annotations.</t>
   </si>
   <si>
+    <t>PEP 526、変数注釈の構文。</t>
+  </si>
+  <si>
     <t>PEP 525, asynchronous generators.</t>
   </si>
   <si>
+    <t>PEP 525、非同期ジェネレータ。</t>
+  </si>
+  <si>
     <t>PEP 530: asynchronous comprehensions.</t>
   </si>
   <si>
+    <t>PEP 530：非同期的な理解。</t>
+  </si>
+  <si>
     <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
   </si>
   <si>
+    <t>dict型は、Raymond Hettingerの提案に基づくよりコンパクトな表現を使用するために再実装され、PyPy dict実装と同様に再実装されました。これにより、Python 3.5と比較して辞書の使用量が20&amp;#12316;25％少なくなりました。</t>
+  </si>
+  <si>
     <t>Customization of class creation has been simplified with the new protocol.</t>
   </si>
   <si>
+    <t>新しいプロトコルにより、クラス作成のカスタマイズが簡単になりました。</t>
+  </si>
+  <si>
     <t>The class attribute definition order is now preserved.</t>
   </si>
   <si>
+    <t>クラス属性定義の順序が保持されるようになりました。</t>
+  </si>
+  <si>
     <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
   </si>
   <si>
+    <t>** kwargsの要素の順序は、キーワード引数が関数に渡された順序に対応するようになりました。</t>
+  </si>
+  <si>
     <t>DTrace and SystemTap probing support has been added.</t>
   </si>
   <si>
+    <t>DTraceとSystemTapのプロービングサポートが追加されました。</t>
+  </si>
+  <si>
     <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
+  </si>
+  <si>
+    <t>新しいPYTHONMALLOC環境変数を使用して、インタプリタのメモリ割り当てとアクセスエラーをデバッグできるようになりました。</t>
   </si>
 </sst>
 </file>
@@ -450,7 +492,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,19 +512,25 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -490,69 +538,91 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>

--- a/GoogleTransExcel-OK.xlsx
+++ b/GoogleTransExcel-OK.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20475" windowHeight="10320"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10320" windowWidth="20475" xWindow="360" yWindow="45"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>オリジナル</t>
   </si>
@@ -111,35 +111,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF222222"/>
       <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -170,35 +171,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -488,19 +483,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="52.75" style="4" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" style="4" width="52.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -516,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="3" s="4" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -524,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -532,11 +531,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -544,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -552,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -560,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -568,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -576,7 +575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -592,7 +591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -600,7 +599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -608,7 +607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -616,7 +615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -624,51 +623,60 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/GoogleTransExcel-OK.xlsx
+++ b/GoogleTransExcel-OK.xlsx
@@ -13,101 +13,6 @@
   <definedNames/>
   <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>オリジナル</t>
-  </si>
-  <si>
-    <t>翻訳テキスト</t>
-  </si>
-  <si>
-    <t>Hello Python World.</t>
-  </si>
-  <si>
-    <t>こんにちはPython World。</t>
-  </si>
-  <si>
-    <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
-  </si>
-  <si>
-    <t>「What\x26#39;s New in Python」エッセイシリーズは、主要なPythonバージョン間の最も重要な変更点を紹介します。彼らは、新しいリリースの後に最新の状態を維持したいと思っている人にとっては、「読んでおく必要があります」。</t>
-  </si>
-  <si>
-    <t>This article explains the new features in Python 3.6, compared to 3.5. Python 3.6 was released on December 23, 2016. For full details, see the changelog.</t>
-  </si>
-  <si>
-    <t>この記事では、3.5と比較して、Python 3.6の新機能について説明します。 Python 3.6は2016年12月23日にリリースされました。詳細は、changelogを参照してください。</t>
-  </si>
-  <si>
-    <t>PEP 498, formatted string literals.</t>
-  </si>
-  <si>
-    <t>PEP 498、フォーマットされた文字列リテラル。</t>
-  </si>
-  <si>
-    <t>PEP 515, underscores in numeric literals.</t>
-  </si>
-  <si>
-    <t>PEP 515は、数値リテラルの下にあります。</t>
-  </si>
-  <si>
-    <t>PEP 526, syntax for variable annotations.</t>
-  </si>
-  <si>
-    <t>PEP 526、変数注釈の構文。</t>
-  </si>
-  <si>
-    <t>PEP 525, asynchronous generators.</t>
-  </si>
-  <si>
-    <t>PEP 525、非同期ジェネレータ。</t>
-  </si>
-  <si>
-    <t>PEP 530: asynchronous comprehensions.</t>
-  </si>
-  <si>
-    <t>PEP 530：非同期的な理解。</t>
-  </si>
-  <si>
-    <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
-  </si>
-  <si>
-    <t>dict型は、Raymond Hettingerの提案に基づくよりコンパクトな表現を使用するために再実装され、PyPy dict実装と同様に再実装されました。これにより、Python 3.5と比較して辞書の使用量が20&amp;#12316;25％少なくなりました。</t>
-  </si>
-  <si>
-    <t>Customization of class creation has been simplified with the new protocol.</t>
-  </si>
-  <si>
-    <t>新しいプロトコルにより、クラス作成のカスタマイズが簡単になりました。</t>
-  </si>
-  <si>
-    <t>The class attribute definition order is now preserved.</t>
-  </si>
-  <si>
-    <t>クラス属性定義の順序が保持されるようになりました。</t>
-  </si>
-  <si>
-    <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
-  </si>
-  <si>
-    <t>** kwargsの要素の順序は、キーワード引数が関数に渡された順序に対応するようになりました。</t>
-  </si>
-  <si>
-    <t>DTrace and SystemTap probing support has been added.</t>
-  </si>
-  <si>
-    <t>DTraceとSystemTapのプロービングサポートが追加されました。</t>
-  </si>
-  <si>
-    <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
-  </si>
-  <si>
-    <t>新しいPYTHONMALLOC環境変数を使用して、インタプリタのメモリ割り当てとアクセスエラーをデバッグできるようになりました。</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,148 +399,208 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="2" min="1" style="4" width="52.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="3" s="4" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>オリジナル</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>翻訳テキスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Hello Python World.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>こんにちはPythonの世界。</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>「Pythonの新機能」シリーズのエッセイでは、主要なPythonバージョン間の最も重要な変更点について説明します。それらは、新しいリリース後も最新の状態に保ちたいという人にとっては「必読」です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>This article explains the new features in Python 3.6, compared to 3.5. Python 3.6 was released on December 23, 2016. For full details, see the changelog.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>この記事では、Python 3.6と3.5の新機能について説明します。 Python 3.6は2016年12月23日にリリースされました。詳細はchangelogをご覧ください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="n"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>PEP 498, formatted string literals.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>PEP 498、フォーマットされた文字列リテラル。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>PEP 515, underscores in numeric literals.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>PEP 515、数字リテラルの下線。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>PEP 526, syntax for variable annotations.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>PEP 526、変数注釈のための構文</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>PEP 525, asynchronous generators.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>PEP 525、非同期ジェネレータ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>PEP 530: asynchronous comprehensions.</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>PEP 530：非同期内包表記</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>dict型は、Raymond Hettingerによる提案に基づいたよりコンパクトな表現を使用するように再実装されており、PyPy dictの実装に似ています。その結果、Python 3.5と比べて辞書のメモリ使用量が20％から25％少なくなりました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Customization of class creation has been simplified with the new protocol.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>クラス作成のカスタマイズは新しいプロトコルで簡素化されました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>The class attribute definition order is now preserved.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>クラス属性定義の順序は保持されます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>** kwargsの要素の順序は、キーワード引数が関数に渡された順序に対応するようになりました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>DTrace and SystemTap probing support has been added.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>DTraceとSystemTapのプロービングサポートが追加されました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>新しいPYTHONMALLOC環境変数を使用して、インタプリタのメモリ割り当てとアクセスエラーをデバッグできます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="n"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
     </row>
